--- a/VT_REG2_RCA_V12.xlsx
+++ b/VT_REG2_RCA_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{852CB93B-103A-4194-9FCE-EF86038612EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85998B33-DD01-4676-9DA5-D27AF92ADAE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="901"/>
+    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" tabRatio="901" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -46,12 +46,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,14 +69,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -804,14 +804,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -925,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -951,7 +951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1077,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1110,7 +1110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1291,7 +1291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1539,14 +1539,14 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1660,7 +1660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1759,7 +1759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1812,7 +1812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1845,7 +1845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1938,7 +1938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1963,7 +1963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2026,7 +2026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2274,14 +2274,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2395,7 +2395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="R3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2421,7 +2421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2494,7 +2494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2547,7 +2547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2580,7 +2580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S11" authorId="2" shapeId="0">
+    <comment ref="S11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2673,7 +2673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="1" shapeId="0">
+    <comment ref="T11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2698,7 +2698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="2" shapeId="0">
+    <comment ref="U11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2761,7 +2761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="2" shapeId="0">
+    <comment ref="M12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3009,14 +3009,14 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3130,7 +3130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3156,7 +3156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3229,7 +3229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3282,7 +3282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -3315,7 +3315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3408,7 +3408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -3433,7 +3433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3496,7 +3496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3744,14 +3744,14 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3865,7 +3865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="R3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3891,7 +3891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3964,7 +3964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4017,7 +4017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4050,7 +4050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S11" authorId="2" shapeId="0">
+    <comment ref="S11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4143,7 +4143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="1" shapeId="0">
+    <comment ref="T11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4168,7 +4168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="2" shapeId="0">
+    <comment ref="U11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4231,7 +4231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="2" shapeId="0">
+    <comment ref="M12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4479,7 +4479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="170">
   <si>
     <t>CommName</t>
   </si>
@@ -4853,18 +4853,6 @@
     <t>Capacity to Activity Factor</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t>WN</t>
-  </si>
-  <si>
     <t>DAYNITE</t>
   </si>
   <si>
@@ -5001,67 +4989,18 @@
   </si>
   <si>
     <t>CAP2ACT</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>DRSH</t>
-  </si>
-  <si>
-    <t>DRAP</t>
-  </si>
-  <si>
-    <t>DROT</t>
-  </si>
-  <si>
-    <t>DCSH</t>
-  </si>
-  <si>
-    <t>DCAP</t>
-  </si>
-  <si>
-    <t>DCOT</t>
-  </si>
-  <si>
-    <t>*Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>~FI_T:COM_FR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="194" formatCode="0.000000"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5091,32 +5030,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -5603,43 +5516,43 @@
   </borders>
   <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5655,20 +5568,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5677,16 +5590,16 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5703,91 +5616,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="11" borderId="0" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="11" borderId="0" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="20" fillId="9" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -5798,15 +5711,15 @@
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="14" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5818,18 +5731,18 @@
     <xf numFmtId="1" fontId="0" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5837,69 +5750,69 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="12" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="12" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="14" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="16" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="14" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="6" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="6" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="14" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="14" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="14" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="13" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="13" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5909,15 +5822,15 @@
     <xf numFmtId="9" fontId="4" fillId="18" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="17" borderId="5" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="17" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="17" borderId="0" xfId="33" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="10"/>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="17" borderId="0" xfId="33" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="10"/>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5929,45 +5842,34 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="0" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="0" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="0" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="2" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="2" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="21" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="36">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -5976,36 +5878,36 @@
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Accent2" xfId="5" builtinId="33"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="7"/>
-    <cellStyle name="Comma 2 2" xfId="8"/>
-    <cellStyle name="Comma 2 3" xfId="9"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Good" xfId="10" builtinId="26"/>
     <cellStyle name="Input" xfId="11" builtinId="20"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="12"/>
+    <cellStyle name="Migliaia_tab emissioni" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="13" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="14"/>
-    <cellStyle name="Normal 2" xfId="15"/>
-    <cellStyle name="Normal 2 3" xfId="16"/>
-    <cellStyle name="Normal 4" xfId="17"/>
-    <cellStyle name="Normal 4 2" xfId="18"/>
-    <cellStyle name="Normal 8" xfId="19"/>
-    <cellStyle name="Normal 9 2" xfId="20"/>
-    <cellStyle name="Normale_B2020" xfId="21"/>
+    <cellStyle name="Normal 10" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 2 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 8" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 9 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normale_B2020" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="Percent" xfId="22" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="23"/>
-    <cellStyle name="Percent 3" xfId="24"/>
-    <cellStyle name="Percent 3 2" xfId="25"/>
-    <cellStyle name="Percent 3 3" xfId="26"/>
-    <cellStyle name="Percent 4" xfId="27"/>
-    <cellStyle name="Percent 4 2" xfId="28"/>
-    <cellStyle name="Percent 4 3" xfId="29"/>
-    <cellStyle name="Percent 5" xfId="30"/>
-    <cellStyle name="Percent 5 2" xfId="31"/>
-    <cellStyle name="Percent 5 3" xfId="32"/>
-    <cellStyle name="Percent 6" xfId="33"/>
-    <cellStyle name="Percent 7" xfId="34"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="35"/>
+    <cellStyle name="Percent 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 3 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 4" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Percent 4 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Percent 5" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Percent 5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Percent 5 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Percent 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Percent 7" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -8933,13 +8835,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
@@ -8985,40 +8887,40 @@
         <v>46</v>
       </c>
       <c r="G2" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="L2" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="M2" s="52" t="s">
         <v>134</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="52" t="s">
-        <v>138</v>
       </c>
       <c r="N2" s="52" t="s">
         <v>47</v>
       </c>
       <c r="O2" s="52" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P2" s="52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>48</v>
@@ -9030,11 +8932,11 @@
         <v>50</v>
       </c>
       <c r="V2" s="52" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Z2" s="13" t="s">
         <v>76</v>
@@ -9045,7 +8947,7 @@
     </row>
     <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C3" s="77" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>51</v>
@@ -9054,43 +8956,43 @@
         <v>52</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I3" s="53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L3" s="53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M3" s="53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N3" s="53" t="s">
         <v>53</v>
       </c>
       <c r="O3" s="53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P3" s="53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q3" s="53" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R3" s="53" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S3" s="53" t="s">
         <v>54</v>
@@ -9816,7 +9718,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D13" s="60">
         <f t="shared" ref="D13:V13" si="1">SUM(D5:D12)</f>
@@ -9922,7 +9824,7 @@
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="C16" s="59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -9964,43 +9866,43 @@
         <v>52</v>
       </c>
       <c r="F19" s="149" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G19" s="149" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H19" s="149" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I19" s="149" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J19" s="149" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K19" s="149" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L19" s="149" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M19" s="149" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N19" s="149" t="s">
         <v>53</v>
       </c>
       <c r="O19" s="53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P19" s="53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="53" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R19" s="53" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S19" s="149" t="s">
         <v>54</v>
@@ -10426,7 +10328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B3:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10447,7 +10349,7 @@
   <sheetData>
     <row r="3" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -10470,13 +10372,13 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10532,38 +10434,38 @@
         <v>90</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="19" t="s">
         <v>90</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>90</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
@@ -10611,13 +10513,13 @@
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="56"/>
       <c r="C23" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="79"/>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -10627,7 +10529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -10644,12 +10546,12 @@
   <sheetData>
     <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="86" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E5" s="87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
@@ -10665,7 +10567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10948,7 +10850,7 @@
       </c>
       <c r="O9" s="159"/>
       <c r="P9" s="159" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="159"/>
       <c r="R9" s="159" t="s">
@@ -11006,10 +10908,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G13" s="88" t="s">
         <v>84</v>
@@ -11056,7 +10958,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>34</v>
@@ -11065,7 +10967,7 @@
         <v>89</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J14" s="158" t="s">
         <v>38</v>
@@ -11307,7 +11209,7 @@
         <v>PJa</v>
       </c>
       <c r="P20" s="159" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="159"/>
       <c r="R20" s="159"/>
@@ -11554,13 +11456,13 @@
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="56"/>
       <c r="C40" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="79"/>
       <c r="C41" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -11572,7 +11474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11646,7 +11548,7 @@
         <v>PJ</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13" t="str">
@@ -11785,7 +11687,7 @@
     </row>
     <row r="7" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="G7" s="146" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="15" x14ac:dyDescent="0.25">
@@ -11822,13 +11724,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H9" s="88" t="s">
         <v>84</v>
@@ -11881,10 +11783,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G10" s="144" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>89</v>
@@ -12203,13 +12105,13 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="56"/>
       <c r="C24" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="79"/>
       <c r="C25" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
@@ -12233,7 +12135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12543,7 +12445,7 @@
       </c>
       <c r="O10" s="159"/>
       <c r="P10" s="159" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="159"/>
       <c r="R10" s="159" t="s">
@@ -12583,10 +12485,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G13" s="88" t="s">
         <v>84</v>
@@ -12633,7 +12535,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>34</v>
@@ -12931,7 +12833,7 @@
         <v>PJa</v>
       </c>
       <c r="P21" s="159" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="159"/>
       <c r="R21" s="159"/>
@@ -13202,13 +13104,13 @@
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="56"/>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="79"/>
       <c r="C42" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -13220,7 +13122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:U42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13511,7 +13413,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F11" s="88" t="s">
         <v>84</v>
@@ -13520,7 +13422,7 @@
         <v>97</v>
       </c>
       <c r="H11" s="88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I11" s="88" t="s">
         <v>79</v>
@@ -13580,10 +13482,10 @@
         <v>123</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K12" s="115" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L12" s="49"/>
       <c r="M12" s="158" t="s">
@@ -14457,13 +14359,13 @@
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="56"/>
       <c r="C37" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="79"/>
       <c r="C38" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
@@ -14495,7 +14397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14805,7 +14707,7 @@
       </c>
       <c r="O10" s="159"/>
       <c r="P10" s="159" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="159"/>
       <c r="R10" s="159" t="s">
@@ -14845,10 +14747,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G13" s="88" t="s">
         <v>84</v>
@@ -14895,7 +14797,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>34</v>
@@ -14904,7 +14806,7 @@
         <v>89</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J14" s="158" t="s">
         <v>38</v>
@@ -15194,7 +15096,7 @@
         <v>PJa</v>
       </c>
       <c r="P21" s="159" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="159"/>
       <c r="R21" s="159"/>
@@ -15465,13 +15367,13 @@
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="56"/>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="79"/>
       <c r="C42" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -15483,7 +15385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:U42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15774,7 +15676,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F11" s="88" t="s">
         <v>84</v>
@@ -15783,7 +15685,7 @@
         <v>97</v>
       </c>
       <c r="H11" s="88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I11" s="88" t="s">
         <v>79</v>
@@ -15843,10 +15745,10 @@
         <v>123</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K12" s="115" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L12" s="49"/>
       <c r="M12" s="158" t="s">
@@ -16718,13 +16620,13 @@
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="56"/>
       <c r="C37" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="79"/>
       <c r="C38" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
@@ -16756,10 +16658,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -16775,7 +16677,7 @@
     <col min="8" max="18" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
         <v>73</v>
       </c>
@@ -16789,7 +16691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
@@ -16800,18 +16702,14 @@
         <v>PJ</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
-      <c r="G5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
@@ -16819,52 +16717,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E6" s="92">
         <v>2005</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="170" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="170" t="s">
-        <v>176</v>
-      </c>
-      <c r="K6" s="170" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="170" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="170" t="s">
-        <v>177</v>
-      </c>
-      <c r="N6" s="170" t="s">
-        <v>178</v>
-      </c>
-      <c r="O6" s="170" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="170" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q6" s="170" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" s="170" t="s">
-        <v>127</v>
-      </c>
-      <c r="S6" s="170" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="22.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>81</v>
       </c>
@@ -16872,28 +16731,13 @@
         <v>82</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="168" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="168"/>
-    </row>
-    <row r="8" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>90</v>
       </c>
@@ -16903,23 +16747,8 @@
         <f>E2</f>
         <v>PJ</v>
       </c>
-      <c r="G8" s="167" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167"/>
-      <c r="S8" s="167"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
         <v>35</v>
       </c>
@@ -16934,50 +16763,8 @@
         <f>SUM(DemTechs_RSD!K14:K19)</f>
         <v>3790.5267578999997</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0.08</v>
-      </c>
-      <c r="J9" s="21">
-        <v>5.5E-2</v>
-      </c>
-      <c r="K9" s="21">
-        <v>0</v>
-      </c>
-      <c r="L9" s="21">
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
-        <v>0</v>
-      </c>
-      <c r="N9" s="21">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="O9" s="21">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="P9" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="R9" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="S9" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="U9" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
@@ -16992,50 +16779,8 @@
         <f>SUM(DemTechs_RSD!K20)</f>
         <v>1305.2067390000002</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="K10" s="21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L10" s="21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M10" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="N10" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P10" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="R10" s="21">
-        <v>0.22</v>
-      </c>
-      <c r="S10" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="U10" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>35</v>
       </c>
@@ -17050,50 +16795,8 @@
         <f>SUM(DemTechs_RSD!K21:K25)</f>
         <v>1115.4324960999998</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="H11" s="171">
-        <v>0.13</v>
-      </c>
-      <c r="I11" s="171">
-        <v>0.11</v>
-      </c>
-      <c r="J11" s="171">
-        <v>0.01</v>
-      </c>
-      <c r="K11" s="171">
-        <v>0.13</v>
-      </c>
-      <c r="L11" s="171">
-        <v>0.11</v>
-      </c>
-      <c r="M11" s="171">
-        <v>0.01</v>
-      </c>
-      <c r="N11" s="171">
-        <v>0.13</v>
-      </c>
-      <c r="O11" s="171">
-        <v>0.11</v>
-      </c>
-      <c r="P11" s="171">
-        <v>0.01</v>
-      </c>
-      <c r="Q11" s="171">
-        <v>0.12</v>
-      </c>
-      <c r="R11" s="171">
-        <v>0.12</v>
-      </c>
-      <c r="S11" s="171">
-        <v>0.01</v>
-      </c>
-      <c r="U11" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -17108,50 +16811,8 @@
         <f>SUM(DemTechs_COM!K14:K19)</f>
         <v>1376.0600115500004</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0.08</v>
-      </c>
-      <c r="J12" s="21">
-        <v>5.5E-2</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0</v>
-      </c>
-      <c r="L12" s="21">
-        <v>0</v>
-      </c>
-      <c r="M12" s="21">
-        <v>0</v>
-      </c>
-      <c r="N12" s="21">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="O12" s="21">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="P12" s="21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="R12" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="S12" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="U12" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
@@ -17166,50 +16827,8 @@
         <f>SUM(DemTechs_COM!K20)</f>
         <v>1148.6992095000001</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J13" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="K13" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L13" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M13" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="N13" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="O13" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P13" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>0.11</v>
-      </c>
-      <c r="R13" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="S13" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="U13" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="31" t="s">
         <v>35</v>
       </c>
@@ -17224,50 +16843,8 @@
         <f>SUM(DemTechs_COM!K21:K25)</f>
         <v>285.62865144999989</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0.13</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0.11</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="K14" s="24">
-        <v>0.13</v>
-      </c>
-      <c r="L14" s="24">
-        <v>0.11</v>
-      </c>
-      <c r="M14" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="N14" s="24">
-        <v>0.13</v>
-      </c>
-      <c r="O14" s="24">
-        <v>0.11</v>
-      </c>
-      <c r="P14" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="R14" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="S14" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="U14" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>35</v>
       </c>
@@ -17289,13 +16866,13 @@
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="56"/>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="79"/>
       <c r="C31" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
